--- a/db.xlsx
+++ b/db.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\projetos\joguinho-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp2019\www\joguinho-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Times" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$W$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$W$130</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="179">
   <si>
     <t>clube_id</t>
   </si>
@@ -100,9 +100,6 @@
     <t>zagueiro</t>
   </si>
   <si>
-    <t>Gustavo Cuellar</t>
-  </si>
-  <si>
     <t>volante</t>
   </si>
   <si>
@@ -220,21 +217,12 @@
     <t>Everson</t>
   </si>
   <si>
-    <t>Luan Peres</t>
-  </si>
-  <si>
     <t>Gustavo Henrique</t>
   </si>
   <si>
-    <t>Victor Ferraz</t>
-  </si>
-  <si>
     <t>Jorge</t>
   </si>
   <si>
-    <t>Allison</t>
-  </si>
-  <si>
     <t>Carlos Sanchez</t>
   </si>
   <si>
@@ -247,24 +235,9 @@
     <t>Soteldo</t>
   </si>
   <si>
-    <t>Jean Mota</t>
-  </si>
-  <si>
     <t>Vanderlei</t>
   </si>
   <si>
-    <t>Lucas Verissímo</t>
-  </si>
-  <si>
-    <t>Fernando Uribe</t>
-  </si>
-  <si>
-    <t>Derlis Gonzalez</t>
-  </si>
-  <si>
-    <t>Cueva</t>
-  </si>
-  <si>
     <t>cor1</t>
   </si>
   <si>
@@ -284,6 +257,315 @@
   </si>
   <si>
     <t>blue</t>
+  </si>
+  <si>
+    <t>Piris da Motta</t>
+  </si>
+  <si>
+    <t>Lucas Verissimo</t>
+  </si>
+  <si>
+    <t>Felipe Aguilar</t>
+  </si>
+  <si>
+    <t>Felipe Jhonathan</t>
+  </si>
+  <si>
+    <t>Derlis Gonzales</t>
+  </si>
+  <si>
+    <t>Jean Motta</t>
+  </si>
+  <si>
+    <t>Diego Pituca</t>
+  </si>
+  <si>
+    <t>Alison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor Ferraz </t>
+  </si>
+  <si>
+    <t>Gatito</t>
+  </si>
+  <si>
+    <t>Cavalieri</t>
+  </si>
+  <si>
+    <t>Joel Carli</t>
+  </si>
+  <si>
+    <t>Marcelo Benevenuto</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Marcinho</t>
+  </si>
+  <si>
+    <t>Luiz Fernando</t>
+  </si>
+  <si>
+    <t>Cicero</t>
+  </si>
+  <si>
+    <t>João Paulo</t>
+  </si>
+  <si>
+    <t>Diego Souza</t>
+  </si>
+  <si>
+    <t>Bochecha</t>
+  </si>
+  <si>
+    <t>Rodrigo Pimpão</t>
+  </si>
+  <si>
+    <t>Leo Valencia</t>
+  </si>
+  <si>
+    <t>Alex Santana</t>
+  </si>
+  <si>
+    <t>Alan Santos</t>
+  </si>
+  <si>
+    <t>Marcos Vinicius</t>
+  </si>
+  <si>
+    <t>Muriel</t>
+  </si>
+  <si>
+    <t>Agenor</t>
+  </si>
+  <si>
+    <t>João Pedro</t>
+  </si>
+  <si>
+    <t>Ganso</t>
+  </si>
+  <si>
+    <t>Caio Henrique</t>
+  </si>
+  <si>
+    <t>Yoni Gonzalez</t>
+  </si>
+  <si>
+    <t>Digão</t>
+  </si>
+  <si>
+    <t>Gilberto</t>
+  </si>
+  <si>
+    <t>Wellington Nem</t>
+  </si>
+  <si>
+    <t>Airton</t>
+  </si>
+  <si>
+    <t>Allan</t>
+  </si>
+  <si>
+    <t>Nino</t>
+  </si>
+  <si>
+    <t>Igor Julião</t>
+  </si>
+  <si>
+    <t>Marcos Paulo</t>
+  </si>
+  <si>
+    <t>Luccas Claro</t>
+  </si>
+  <si>
+    <t>Fernando Miguel</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Guarin</t>
+  </si>
+  <si>
+    <t>Leandro Castan</t>
+  </si>
+  <si>
+    <t>Talles Magno</t>
+  </si>
+  <si>
+    <t>Breno</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Yago Pikachu</t>
+  </si>
+  <si>
+    <t>Marrony</t>
+  </si>
+  <si>
+    <t>Rossi</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>Ramón</t>
+  </si>
+  <si>
+    <t>Lucas Ribamar</t>
+  </si>
+  <si>
+    <t>Bruno César</t>
+  </si>
+  <si>
+    <t>Henriquez</t>
+  </si>
+  <si>
+    <t>Danilo Barcelos</t>
+  </si>
+  <si>
+    <t>Weverton</t>
+  </si>
+  <si>
+    <t>Jailson</t>
+  </si>
+  <si>
+    <t>Felipe Melo</t>
+  </si>
+  <si>
+    <t>Dudu</t>
+  </si>
+  <si>
+    <t>Luiz Adriano</t>
+  </si>
+  <si>
+    <t>Gustavo Scarpa</t>
+  </si>
+  <si>
+    <t>Marcos Rocha</t>
+  </si>
+  <si>
+    <t>Vitor Hugo</t>
+  </si>
+  <si>
+    <t>Borja</t>
+  </si>
+  <si>
+    <t>William Bigode</t>
+  </si>
+  <si>
+    <t>Diogo Barbosa</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Luan</t>
+  </si>
+  <si>
+    <t>Zé Rafael</t>
+  </si>
+  <si>
+    <t>Matheus Fernandes</t>
+  </si>
+  <si>
+    <t>Thiago Volpi</t>
+  </si>
+  <si>
+    <t>Lucas Perri</t>
+  </si>
+  <si>
+    <t>Anderson Martins</t>
+  </si>
+  <si>
+    <t>Antony</t>
+  </si>
+  <si>
+    <t>Pato</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Jucilei</t>
+  </si>
+  <si>
+    <t>Arboleda</t>
+  </si>
+  <si>
+    <t>Reinaldo</t>
+  </si>
+  <si>
+    <t>Tchê tchê</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>Bruno Alves</t>
+  </si>
+  <si>
+    <t>Vitor Bueno</t>
+  </si>
+  <si>
+    <t>Daniel Alves</t>
+  </si>
+  <si>
+    <t>Juan Fran</t>
+  </si>
+  <si>
+    <t>Hernanes</t>
+  </si>
+  <si>
+    <t>Cassio</t>
+  </si>
+  <si>
+    <t>Wagner</t>
+  </si>
+  <si>
+    <t>Gil</t>
+  </si>
+  <si>
+    <t>Pedrinho</t>
+  </si>
+  <si>
+    <t>Fagner</t>
+  </si>
+  <si>
+    <t>Mateus Vital</t>
+  </si>
+  <si>
+    <t>Ralf</t>
+  </si>
+  <si>
+    <t>Sornoza</t>
+  </si>
+  <si>
+    <t>Ramiro</t>
+  </si>
+  <si>
+    <t>Junior Urso</t>
+  </si>
+  <si>
+    <t>Vagner Love</t>
+  </si>
+  <si>
+    <t>Manoel</t>
+  </si>
+  <si>
+    <t>Everaldo</t>
+  </si>
+  <si>
+    <t>Daniel Avelar</t>
+  </si>
+  <si>
+    <t>Boselli</t>
+  </si>
+  <si>
+    <t>Léo Santos</t>
   </si>
 </sst>
 </file>
@@ -319,8 +601,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,27 +918,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W33"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:W130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W131" sqref="W131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -731,7 +1018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -802,7 +1089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -873,7 +1160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -944,36 +1231,36 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -991,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1015,12 +1302,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1086,12 +1373,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1157,27 +1444,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>12</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>12</v>
@@ -1228,12 +1515,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1299,12 +1586,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1372,10 +1659,10 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1443,10 +1730,10 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1512,12 +1799,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1583,12 +1870,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1651,12 +1938,12 @@
         <v>3</v>
       </c>
       <c r="W14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -1727,10 +2014,10 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1796,9 +2083,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1828,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L17">
         <v>9</v>
@@ -1867,9 +2154,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -1899,25 +2186,25 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P18">
         <v>12</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R18" t="s">
         <v>12</v>
@@ -1938,80 +2225,80 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>8</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S19" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T19" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="U19" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="V19" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="W19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -2020,26 +2307,26 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>12</v>
       </c>
       <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>13</v>
+      </c>
+      <c r="J20">
         <v>9</v>
       </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20">
-        <v>13</v>
-      </c>
-      <c r="J20">
-        <v>11</v>
-      </c>
       <c r="K20">
         <v>0</v>
       </c>
@@ -2056,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2080,33 +2367,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>8</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H21">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J21">
         <v>8</v>
@@ -2127,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -2151,12 +2438,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -2165,23 +2452,23 @@
         <v>12</v>
       </c>
       <c r="E22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G22">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
         <v>9</v>
       </c>
-      <c r="I22">
-        <v>12</v>
-      </c>
-      <c r="J22">
-        <v>13</v>
-      </c>
       <c r="K22">
         <v>0</v>
       </c>
@@ -2198,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2222,12 +2509,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -2236,22 +2523,22 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G23">
         <v>7</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I23">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J23">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2290,323 +2577,323 @@
         <v>3</v>
       </c>
       <c r="W23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>9</v>
+      </c>
+      <c r="I24">
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <v>13</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>9</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>7</v>
+      </c>
+      <c r="S24" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" t="s">
+        <v>6</v>
+      </c>
+      <c r="V24" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>7</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>7</v>
+      </c>
+      <c r="S25" t="s">
+        <v>8</v>
+      </c>
+      <c r="T25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V25" t="s">
+        <v>3</v>
+      </c>
+      <c r="W25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>13</v>
-      </c>
-      <c r="E24">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>13</v>
+      </c>
+      <c r="E26">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>8</v>
+      </c>
+      <c r="I26">
+        <v>12</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>7</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
+        <v>7</v>
+      </c>
+      <c r="S26" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" t="s">
+        <v>6</v>
+      </c>
+      <c r="V26" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <v>13</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>6</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" t="s">
+        <v>5</v>
+      </c>
+      <c r="U27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V27" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
         <v>14</v>
       </c>
-      <c r="F24">
-        <v>12</v>
-      </c>
-      <c r="G24">
-        <v>13</v>
-      </c>
-      <c r="H24">
-        <v>12</v>
-      </c>
-      <c r="I24">
-        <v>12</v>
-      </c>
-      <c r="J24">
-        <v>9</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>8</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24" t="s">
-        <v>7</v>
-      </c>
-      <c r="S24" t="s">
-        <v>8</v>
-      </c>
-      <c r="T24" t="s">
-        <v>5</v>
-      </c>
-      <c r="U24" t="s">
-        <v>6</v>
-      </c>
-      <c r="V24" t="s">
-        <v>3</v>
-      </c>
-      <c r="W24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="D25">
-        <v>12</v>
-      </c>
-      <c r="E25">
-        <v>12</v>
-      </c>
-      <c r="F25">
-        <v>9</v>
-      </c>
-      <c r="G25">
-        <v>9</v>
-      </c>
-      <c r="H25">
-        <v>11</v>
-      </c>
-      <c r="I25">
-        <v>11</v>
-      </c>
-      <c r="J25">
-        <v>9</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>7</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25" t="s">
-        <v>7</v>
-      </c>
-      <c r="S25" t="s">
-        <v>8</v>
-      </c>
-      <c r="T25" t="s">
-        <v>5</v>
-      </c>
-      <c r="U25" t="s">
-        <v>6</v>
-      </c>
-      <c r="V25" t="s">
-        <v>3</v>
-      </c>
-      <c r="W25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <v>11</v>
-      </c>
-      <c r="F26">
-        <v>6</v>
-      </c>
-      <c r="G26">
-        <v>12</v>
-      </c>
-      <c r="H26">
-        <v>14</v>
-      </c>
-      <c r="I26">
-        <v>8</v>
-      </c>
-      <c r="J26">
-        <v>13</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>11</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26" t="s">
-        <v>7</v>
-      </c>
-      <c r="S26" t="s">
-        <v>8</v>
-      </c>
-      <c r="T26" t="s">
-        <v>5</v>
-      </c>
-      <c r="U26" t="s">
-        <v>6</v>
-      </c>
-      <c r="V26" t="s">
-        <v>3</v>
-      </c>
-      <c r="W26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27">
-        <v>8</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>9</v>
-      </c>
-      <c r="F27">
-        <v>5</v>
-      </c>
-      <c r="G27">
-        <v>11</v>
-      </c>
-      <c r="H27">
-        <v>12</v>
-      </c>
-      <c r="I27">
-        <v>6</v>
-      </c>
-      <c r="J27">
-        <v>10</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>10</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27" t="s">
-        <v>7</v>
-      </c>
-      <c r="S27" t="s">
-        <v>8</v>
-      </c>
-      <c r="T27" t="s">
-        <v>5</v>
-      </c>
-      <c r="U27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V27" t="s">
-        <v>3</v>
-      </c>
-      <c r="W27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>7</v>
-      </c>
       <c r="E28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I28">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J28">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2624,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -2648,89 +2935,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>8</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S29" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="T29" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="U29" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="V29" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="W29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>8</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <v>12</v>
@@ -2742,13 +3029,13 @@
         <v>11</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I30">
         <v>9</v>
       </c>
       <c r="J30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2766,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -2787,39 +3074,39 @@
         <v>3</v>
       </c>
       <c r="W30" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>8</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>13</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I31">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J31">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2837,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="P31">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q31">
         <v>0</v>
@@ -2858,39 +3145,39 @@
         <v>3</v>
       </c>
       <c r="W31" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>8</v>
       </c>
       <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
         <v>9</v>
       </c>
-      <c r="E32">
-        <v>11</v>
-      </c>
       <c r="F32">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H32">
         <v>11</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2908,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -2929,15 +3216,15 @@
         <v>3</v>
       </c>
       <c r="W32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>8</v>
@@ -2946,65 +3233,6928 @@
         <v>12</v>
       </c>
       <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>12</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" t="s">
+        <v>8</v>
+      </c>
+      <c r="T33" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" t="s">
+        <v>6</v>
+      </c>
+      <c r="V33" t="s">
+        <v>3</v>
+      </c>
+      <c r="W33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>14</v>
+      </c>
+      <c r="L34">
+        <v>14</v>
+      </c>
+      <c r="M34">
+        <v>15</v>
+      </c>
+      <c r="N34">
+        <v>15</v>
+      </c>
+      <c r="O34">
+        <v>16</v>
+      </c>
+      <c r="P34">
+        <v>14</v>
+      </c>
+      <c r="Q34">
+        <v>12</v>
+      </c>
+      <c r="R34" t="s">
+        <v>12</v>
+      </c>
+      <c r="S34" t="s">
+        <v>12</v>
+      </c>
+      <c r="T34" t="s">
+        <v>13</v>
+      </c>
+      <c r="U34" t="s">
+        <v>13</v>
+      </c>
+      <c r="V34" t="s">
+        <v>14</v>
+      </c>
+      <c r="W34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>9</v>
       </c>
-      <c r="F33">
-        <v>7</v>
-      </c>
-      <c r="G33">
-        <v>11</v>
-      </c>
-      <c r="H33">
-        <v>8</v>
-      </c>
-      <c r="I33">
+      <c r="L35">
+        <v>7</v>
+      </c>
+      <c r="M35">
+        <v>9</v>
+      </c>
+      <c r="N35">
+        <v>10</v>
+      </c>
+      <c r="O35">
+        <v>9</v>
+      </c>
+      <c r="P35">
+        <v>12</v>
+      </c>
+      <c r="Q35">
+        <v>13</v>
+      </c>
+      <c r="R35" t="s">
+        <v>12</v>
+      </c>
+      <c r="S35" t="s">
+        <v>12</v>
+      </c>
+      <c r="T35" t="s">
+        <v>13</v>
+      </c>
+      <c r="U35" t="s">
+        <v>13</v>
+      </c>
+      <c r="V35" t="s">
+        <v>14</v>
+      </c>
+      <c r="W35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>10</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>13</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36" t="s">
+        <v>7</v>
+      </c>
+      <c r="S36" t="s">
+        <v>8</v>
+      </c>
+      <c r="T36" t="s">
+        <v>5</v>
+      </c>
+      <c r="U36" t="s">
+        <v>6</v>
+      </c>
+      <c r="V36" t="s">
+        <v>3</v>
+      </c>
+      <c r="W36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>12</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>12</v>
+      </c>
+      <c r="J37">
+        <v>12</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>12</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37" t="s">
+        <v>7</v>
+      </c>
+      <c r="S37" t="s">
+        <v>8</v>
+      </c>
+      <c r="T37" t="s">
+        <v>5</v>
+      </c>
+      <c r="U37" t="s">
+        <v>6</v>
+      </c>
+      <c r="V37" t="s">
+        <v>3</v>
+      </c>
+      <c r="W37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
         <v>4</v>
       </c>
-      <c r="J33">
-        <v>7</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>12</v>
+      </c>
+      <c r="J38">
+        <v>12</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>10</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
+        <v>7</v>
+      </c>
+      <c r="S38" t="s">
+        <v>8</v>
+      </c>
+      <c r="T38" t="s">
+        <v>5</v>
+      </c>
+      <c r="U38" t="s">
+        <v>6</v>
+      </c>
+      <c r="V38" t="s">
+        <v>3</v>
+      </c>
+      <c r="W38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+      <c r="E39">
+        <v>13</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>12</v>
+      </c>
+      <c r="I39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>13</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>7</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>7</v>
+      </c>
+      <c r="S39" t="s">
+        <v>8</v>
+      </c>
+      <c r="T39" t="s">
+        <v>5</v>
+      </c>
+      <c r="U39" t="s">
+        <v>6</v>
+      </c>
+      <c r="V39" t="s">
+        <v>3</v>
+      </c>
+      <c r="W39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+      <c r="G40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>9</v>
+      </c>
+      <c r="I40">
+        <v>12</v>
+      </c>
+      <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>8</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40" t="s">
+        <v>7</v>
+      </c>
+      <c r="S40" t="s">
+        <v>8</v>
+      </c>
+      <c r="T40" t="s">
+        <v>5</v>
+      </c>
+      <c r="U40" t="s">
+        <v>6</v>
+      </c>
+      <c r="V40" t="s">
+        <v>3</v>
+      </c>
+      <c r="W40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="I41">
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <v>11</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>8</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41" t="s">
+        <v>7</v>
+      </c>
+      <c r="S41" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" t="s">
+        <v>6</v>
+      </c>
+      <c r="V41" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>13</v>
+      </c>
+      <c r="H42">
+        <v>9</v>
+      </c>
+      <c r="I42">
+        <v>11</v>
+      </c>
+      <c r="J42">
+        <v>9</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>7</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42" t="s">
+        <v>7</v>
+      </c>
+      <c r="S42" t="s">
+        <v>8</v>
+      </c>
+      <c r="T42" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" t="s">
+        <v>6</v>
+      </c>
+      <c r="V42" t="s">
+        <v>3</v>
+      </c>
+      <c r="W42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43">
+        <v>12</v>
+      </c>
+      <c r="J43">
+        <v>11</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>8</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
+        <v>7</v>
+      </c>
+      <c r="S43" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" t="s">
+        <v>6</v>
+      </c>
+      <c r="V43" t="s">
+        <v>3</v>
+      </c>
+      <c r="W43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>12</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>9</v>
+      </c>
+      <c r="I44">
+        <v>12</v>
+      </c>
+      <c r="J44">
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>9</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
+        <v>7</v>
+      </c>
+      <c r="S44" t="s">
+        <v>8</v>
+      </c>
+      <c r="T44" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" t="s">
+        <v>6</v>
+      </c>
+      <c r="V44" t="s">
+        <v>3</v>
+      </c>
+      <c r="W44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>12</v>
+      </c>
+      <c r="E45">
+        <v>12</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>11</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>7</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45" t="s">
+        <v>7</v>
+      </c>
+      <c r="S45" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" t="s">
+        <v>5</v>
+      </c>
+      <c r="U45" t="s">
+        <v>6</v>
+      </c>
+      <c r="V45" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46">
         <v>14</v>
       </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33" t="s">
-        <v>7</v>
-      </c>
-      <c r="S33" t="s">
-        <v>8</v>
-      </c>
-      <c r="T33" t="s">
-        <v>5</v>
-      </c>
-      <c r="U33" t="s">
-        <v>6</v>
-      </c>
-      <c r="V33" t="s">
-        <v>3</v>
-      </c>
-      <c r="W33" t="s">
+      <c r="F46">
+        <v>12</v>
+      </c>
+      <c r="G46">
+        <v>12</v>
+      </c>
+      <c r="H46">
+        <v>11</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>10</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>7</v>
+      </c>
+      <c r="S46" t="s">
+        <v>8</v>
+      </c>
+      <c r="T46" t="s">
+        <v>5</v>
+      </c>
+      <c r="U46" t="s">
+        <v>6</v>
+      </c>
+      <c r="V46" t="s">
+        <v>3</v>
+      </c>
+      <c r="W46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>12</v>
+      </c>
+      <c r="G47">
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <v>12</v>
+      </c>
+      <c r="I47">
+        <v>9</v>
+      </c>
+      <c r="J47">
+        <v>7</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>12</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47" t="s">
+        <v>7</v>
+      </c>
+      <c r="S47" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" t="s">
+        <v>6</v>
+      </c>
+      <c r="V47" t="s">
+        <v>3</v>
+      </c>
+      <c r="W47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>13</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>11</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <v>11</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>11</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48" t="s">
+        <v>7</v>
+      </c>
+      <c r="S48" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" t="s">
+        <v>6</v>
+      </c>
+      <c r="V48" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>9</v>
+      </c>
+      <c r="H49">
+        <v>12</v>
+      </c>
+      <c r="I49">
+        <v>11</v>
+      </c>
+      <c r="J49">
+        <v>12</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>10</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49" t="s">
+        <v>7</v>
+      </c>
+      <c r="S49" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" t="s">
+        <v>6</v>
+      </c>
+      <c r="V49" t="s">
+        <v>3</v>
+      </c>
+      <c r="W49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>12</v>
+      </c>
+      <c r="L50">
+        <v>11</v>
+      </c>
+      <c r="M50">
+        <v>12</v>
+      </c>
+      <c r="N50">
+        <v>12</v>
+      </c>
+      <c r="O50">
+        <v>12</v>
+      </c>
+      <c r="P50">
+        <v>12</v>
+      </c>
+      <c r="Q50">
+        <v>12</v>
+      </c>
+      <c r="R50" t="s">
+        <v>12</v>
+      </c>
+      <c r="S50" t="s">
+        <v>12</v>
+      </c>
+      <c r="T50" t="s">
+        <v>13</v>
+      </c>
+      <c r="U50" t="s">
+        <v>13</v>
+      </c>
+      <c r="V50" t="s">
+        <v>14</v>
+      </c>
+      <c r="W50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>7</v>
+      </c>
+      <c r="L51">
+        <v>7</v>
+      </c>
+      <c r="M51">
+        <v>7</v>
+      </c>
+      <c r="N51">
+        <v>7</v>
+      </c>
+      <c r="O51">
+        <v>7</v>
+      </c>
+      <c r="P51">
+        <v>10</v>
+      </c>
+      <c r="Q51">
+        <v>10</v>
+      </c>
+      <c r="R51" t="s">
+        <v>12</v>
+      </c>
+      <c r="S51" t="s">
+        <v>12</v>
+      </c>
+      <c r="T51" t="s">
+        <v>13</v>
+      </c>
+      <c r="U51" t="s">
+        <v>13</v>
+      </c>
+      <c r="V51" t="s">
+        <v>14</v>
+      </c>
+      <c r="W51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>11</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>13</v>
+      </c>
+      <c r="R52" t="s">
+        <v>7</v>
+      </c>
+      <c r="S52" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" t="s">
+        <v>6</v>
+      </c>
+      <c r="V52" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>11</v>
+      </c>
+      <c r="E53">
+        <v>9</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+      <c r="J53">
+        <v>9</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>12</v>
+      </c>
+      <c r="R53" t="s">
+        <v>7</v>
+      </c>
+      <c r="S53" t="s">
+        <v>8</v>
+      </c>
+      <c r="T53" t="s">
+        <v>5</v>
+      </c>
+      <c r="U53" t="s">
+        <v>6</v>
+      </c>
+      <c r="V53" t="s">
+        <v>3</v>
+      </c>
+      <c r="W53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>8</v>
+      </c>
+      <c r="G54">
+        <v>6</v>
+      </c>
+      <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>11</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>13</v>
+      </c>
+      <c r="R54" t="s">
+        <v>7</v>
+      </c>
+      <c r="S54" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" t="s">
+        <v>6</v>
+      </c>
+      <c r="V54" t="s">
+        <v>3</v>
+      </c>
+      <c r="W54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>13</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+      <c r="G55">
+        <v>8</v>
+      </c>
+      <c r="H55">
+        <v>7</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <v>11</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>7</v>
+      </c>
+      <c r="R55" t="s">
+        <v>7</v>
+      </c>
+      <c r="S55" t="s">
+        <v>8</v>
+      </c>
+      <c r="T55" t="s">
+        <v>5</v>
+      </c>
+      <c r="U55" t="s">
+        <v>6</v>
+      </c>
+      <c r="V55" t="s">
+        <v>3</v>
+      </c>
+      <c r="W55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>11</v>
+      </c>
+      <c r="E56">
+        <v>12</v>
+      </c>
+      <c r="F56">
+        <v>11</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>12</v>
+      </c>
+      <c r="I56">
+        <v>12</v>
+      </c>
+      <c r="J56">
+        <v>13</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>7</v>
+      </c>
+      <c r="R56" t="s">
+        <v>7</v>
+      </c>
+      <c r="S56" t="s">
+        <v>8</v>
+      </c>
+      <c r="T56" t="s">
+        <v>5</v>
+      </c>
+      <c r="U56" t="s">
+        <v>6</v>
+      </c>
+      <c r="V56" t="s">
+        <v>3</v>
+      </c>
+      <c r="W56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>13</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>11</v>
+      </c>
+      <c r="I57">
+        <v>13</v>
+      </c>
+      <c r="J57">
+        <v>12</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>9</v>
+      </c>
+      <c r="R57" t="s">
+        <v>7</v>
+      </c>
+      <c r="S57" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" t="s">
+        <v>6</v>
+      </c>
+      <c r="V57" t="s">
+        <v>3</v>
+      </c>
+      <c r="W57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>11</v>
+      </c>
+      <c r="E58">
+        <v>13</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>7</v>
+      </c>
+      <c r="I58">
+        <v>11</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>10</v>
+      </c>
+      <c r="R58" t="s">
+        <v>7</v>
+      </c>
+      <c r="S58" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" t="s">
+        <v>6</v>
+      </c>
+      <c r="V58" t="s">
+        <v>3</v>
+      </c>
+      <c r="W58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59">
+        <v>6</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>13</v>
+      </c>
+      <c r="J59">
+        <v>12</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>7</v>
+      </c>
+      <c r="R59" t="s">
+        <v>7</v>
+      </c>
+      <c r="S59" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" t="s">
+        <v>6</v>
+      </c>
+      <c r="V59" t="s">
+        <v>3</v>
+      </c>
+      <c r="W59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>12</v>
+      </c>
+      <c r="E60">
+        <v>11</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+      <c r="G60">
+        <v>8</v>
+      </c>
+      <c r="H60">
+        <v>11</v>
+      </c>
+      <c r="I60">
+        <v>12</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>8</v>
+      </c>
+      <c r="R60" t="s">
+        <v>7</v>
+      </c>
+      <c r="S60" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" t="s">
+        <v>5</v>
+      </c>
+      <c r="U60" t="s">
+        <v>6</v>
+      </c>
+      <c r="V60" t="s">
+        <v>3</v>
+      </c>
+      <c r="W60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>11</v>
+      </c>
+      <c r="E61">
+        <v>12</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>11</v>
+      </c>
+      <c r="H61">
+        <v>13</v>
+      </c>
+      <c r="I61">
+        <v>11</v>
+      </c>
+      <c r="J61">
+        <v>13</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>8</v>
+      </c>
+      <c r="R61" t="s">
+        <v>7</v>
+      </c>
+      <c r="S61" t="s">
+        <v>8</v>
+      </c>
+      <c r="T61" t="s">
+        <v>5</v>
+      </c>
+      <c r="U61" t="s">
+        <v>6</v>
+      </c>
+      <c r="V61" t="s">
+        <v>3</v>
+      </c>
+      <c r="W61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <v>15</v>
+      </c>
+      <c r="F62">
+        <v>13</v>
+      </c>
+      <c r="G62">
+        <v>12</v>
+      </c>
+      <c r="H62">
+        <v>13</v>
+      </c>
+      <c r="I62">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>6</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>9</v>
+      </c>
+      <c r="R62" t="s">
+        <v>7</v>
+      </c>
+      <c r="S62" t="s">
+        <v>8</v>
+      </c>
+      <c r="T62" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" t="s">
+        <v>6</v>
+      </c>
+      <c r="V62" t="s">
+        <v>3</v>
+      </c>
+      <c r="W62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>10</v>
+      </c>
+      <c r="E63">
+        <v>14</v>
+      </c>
+      <c r="F63">
+        <v>13</v>
+      </c>
+      <c r="G63">
+        <v>13</v>
+      </c>
+      <c r="H63">
+        <v>13</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>14</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>10</v>
+      </c>
+      <c r="R63" t="s">
+        <v>7</v>
+      </c>
+      <c r="S63" t="s">
+        <v>8</v>
+      </c>
+      <c r="T63" t="s">
+        <v>5</v>
+      </c>
+      <c r="U63" t="s">
+        <v>6</v>
+      </c>
+      <c r="V63" t="s">
+        <v>3</v>
+      </c>
+      <c r="W63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>13</v>
+      </c>
+      <c r="E64">
+        <v>12</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64">
+        <v>13</v>
+      </c>
+      <c r="H64">
+        <v>9</v>
+      </c>
+      <c r="I64">
+        <v>8</v>
+      </c>
+      <c r="J64">
+        <v>10</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>13</v>
+      </c>
+      <c r="R64" t="s">
+        <v>7</v>
+      </c>
+      <c r="S64" t="s">
+        <v>8</v>
+      </c>
+      <c r="T64" t="s">
+        <v>5</v>
+      </c>
+      <c r="U64" t="s">
+        <v>6</v>
+      </c>
+      <c r="V64" t="s">
+        <v>3</v>
+      </c>
+      <c r="W64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>12</v>
+      </c>
+      <c r="E65">
+        <v>11</v>
+      </c>
+      <c r="F65">
+        <v>12</v>
+      </c>
+      <c r="G65">
+        <v>11</v>
+      </c>
+      <c r="H65">
+        <v>14</v>
+      </c>
+      <c r="I65">
+        <v>10</v>
+      </c>
+      <c r="J65">
+        <v>14</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>10</v>
+      </c>
+      <c r="R65" t="s">
+        <v>7</v>
+      </c>
+      <c r="S65" t="s">
+        <v>8</v>
+      </c>
+      <c r="T65" t="s">
+        <v>5</v>
+      </c>
+      <c r="U65" t="s">
+        <v>6</v>
+      </c>
+      <c r="V65" t="s">
+        <v>3</v>
+      </c>
+      <c r="W65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>11</v>
+      </c>
+      <c r="L66">
+        <v>11</v>
+      </c>
+      <c r="M66">
+        <v>11</v>
+      </c>
+      <c r="N66">
+        <v>11</v>
+      </c>
+      <c r="O66">
+        <v>11</v>
+      </c>
+      <c r="P66">
+        <v>13</v>
+      </c>
+      <c r="Q66">
+        <v>11</v>
+      </c>
+      <c r="R66" t="s">
+        <v>12</v>
+      </c>
+      <c r="S66" t="s">
+        <v>12</v>
+      </c>
+      <c r="T66" t="s">
+        <v>13</v>
+      </c>
+      <c r="U66" t="s">
+        <v>13</v>
+      </c>
+      <c r="V66" t="s">
+        <v>14</v>
+      </c>
+      <c r="W66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>8</v>
+      </c>
+      <c r="L67">
+        <v>8</v>
+      </c>
+      <c r="M67">
+        <v>8</v>
+      </c>
+      <c r="N67">
+        <v>8</v>
+      </c>
+      <c r="O67">
+        <v>8</v>
+      </c>
+      <c r="P67">
+        <v>10</v>
+      </c>
+      <c r="Q67">
+        <v>9</v>
+      </c>
+      <c r="R67" t="s">
+        <v>12</v>
+      </c>
+      <c r="S67" t="s">
+        <v>12</v>
+      </c>
+      <c r="T67" t="s">
+        <v>13</v>
+      </c>
+      <c r="U67" t="s">
+        <v>13</v>
+      </c>
+      <c r="V67" t="s">
+        <v>14</v>
+      </c>
+      <c r="W67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>12</v>
+      </c>
+      <c r="E68">
+        <v>11</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+      <c r="G68">
+        <v>8</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>12</v>
+      </c>
+      <c r="J68">
+        <v>10</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>13</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68" t="s">
+        <v>7</v>
+      </c>
+      <c r="S68" t="s">
+        <v>8</v>
+      </c>
+      <c r="T68" t="s">
+        <v>5</v>
+      </c>
+      <c r="U68" t="s">
+        <v>6</v>
+      </c>
+      <c r="V68" t="s">
+        <v>3</v>
+      </c>
+      <c r="W68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>13</v>
+      </c>
+      <c r="E69">
+        <v>12</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69">
+        <v>8</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+      <c r="I69">
+        <v>11</v>
+      </c>
+      <c r="J69">
+        <v>9</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>13</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69" t="s">
+        <v>7</v>
+      </c>
+      <c r="S69" t="s">
+        <v>8</v>
+      </c>
+      <c r="T69" t="s">
+        <v>5</v>
+      </c>
+      <c r="U69" t="s">
+        <v>6</v>
+      </c>
+      <c r="V69" t="s">
+        <v>3</v>
+      </c>
+      <c r="W69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>13</v>
+      </c>
+      <c r="E70">
+        <v>11</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70">
+        <v>6</v>
+      </c>
+      <c r="H70">
+        <v>11</v>
+      </c>
+      <c r="I70">
+        <v>12</v>
+      </c>
+      <c r="J70">
+        <v>11</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>12</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70" t="s">
+        <v>7</v>
+      </c>
+      <c r="S70" t="s">
+        <v>8</v>
+      </c>
+      <c r="T70" t="s">
+        <v>5</v>
+      </c>
+      <c r="U70" t="s">
+        <v>6</v>
+      </c>
+      <c r="V70" t="s">
+        <v>3</v>
+      </c>
+      <c r="W70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>12</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71">
+        <v>10</v>
+      </c>
+      <c r="H71">
+        <v>11</v>
+      </c>
+      <c r="I71">
+        <v>12</v>
+      </c>
+      <c r="J71">
+        <v>13</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>9</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71" t="s">
+        <v>7</v>
+      </c>
+      <c r="S71" t="s">
+        <v>8</v>
+      </c>
+      <c r="T71" t="s">
+        <v>5</v>
+      </c>
+      <c r="U71" t="s">
+        <v>6</v>
+      </c>
+      <c r="V71" t="s">
+        <v>3</v>
+      </c>
+      <c r="W71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>131</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>12</v>
+      </c>
+      <c r="E72">
+        <v>11</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <v>12</v>
+      </c>
+      <c r="H72">
+        <v>10</v>
+      </c>
+      <c r="I72">
+        <v>12</v>
+      </c>
+      <c r="J72">
+        <v>13</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>8</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72" t="s">
+        <v>7</v>
+      </c>
+      <c r="S72" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" t="s">
+        <v>6</v>
+      </c>
+      <c r="V72" t="s">
+        <v>3</v>
+      </c>
+      <c r="W72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>11</v>
+      </c>
+      <c r="E73">
+        <v>11</v>
+      </c>
+      <c r="F73">
+        <v>9</v>
+      </c>
+      <c r="G73">
+        <v>7</v>
+      </c>
+      <c r="H73">
+        <v>10</v>
+      </c>
+      <c r="I73">
+        <v>12</v>
+      </c>
+      <c r="J73">
+        <v>11</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>9</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73" t="s">
+        <v>7</v>
+      </c>
+      <c r="S73" t="s">
+        <v>8</v>
+      </c>
+      <c r="T73" t="s">
+        <v>5</v>
+      </c>
+      <c r="U73" t="s">
+        <v>6</v>
+      </c>
+      <c r="V73" t="s">
+        <v>3</v>
+      </c>
+      <c r="W73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>126</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>12</v>
+      </c>
+      <c r="E74">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+      <c r="G74">
+        <v>8</v>
+      </c>
+      <c r="H74">
+        <v>8</v>
+      </c>
+      <c r="I74">
+        <v>12</v>
+      </c>
+      <c r="J74">
+        <v>10</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>10</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74" t="s">
+        <v>7</v>
+      </c>
+      <c r="S74" t="s">
+        <v>8</v>
+      </c>
+      <c r="T74" t="s">
+        <v>5</v>
+      </c>
+      <c r="U74" t="s">
+        <v>6</v>
+      </c>
+      <c r="V74" t="s">
+        <v>3</v>
+      </c>
+      <c r="W74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>13</v>
+      </c>
+      <c r="E75">
+        <v>14</v>
+      </c>
+      <c r="F75">
+        <v>13</v>
+      </c>
+      <c r="G75">
+        <v>13</v>
+      </c>
+      <c r="H75">
+        <v>10</v>
+      </c>
+      <c r="I75">
+        <v>9</v>
+      </c>
+      <c r="J75">
+        <v>12</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>11</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75" t="s">
+        <v>7</v>
+      </c>
+      <c r="S75" t="s">
+        <v>8</v>
+      </c>
+      <c r="T75" t="s">
+        <v>5</v>
+      </c>
+      <c r="U75" t="s">
+        <v>6</v>
+      </c>
+      <c r="V75" t="s">
+        <v>3</v>
+      </c>
+      <c r="W75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>10</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76">
+        <v>11</v>
+      </c>
+      <c r="H76">
+        <v>10</v>
+      </c>
+      <c r="I76">
+        <v>10</v>
+      </c>
+      <c r="J76">
+        <v>12</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>9</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76" t="s">
+        <v>7</v>
+      </c>
+      <c r="S76" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" t="s">
+        <v>6</v>
+      </c>
+      <c r="V76" t="s">
+        <v>3</v>
+      </c>
+      <c r="W76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>11</v>
+      </c>
+      <c r="E77">
+        <v>13</v>
+      </c>
+      <c r="F77">
+        <v>11</v>
+      </c>
+      <c r="G77">
+        <v>12</v>
+      </c>
+      <c r="H77">
+        <v>10</v>
+      </c>
+      <c r="I77">
+        <v>7</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>7</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77" t="s">
+        <v>7</v>
+      </c>
+      <c r="S77" t="s">
+        <v>8</v>
+      </c>
+      <c r="T77" t="s">
+        <v>5</v>
+      </c>
+      <c r="U77" t="s">
+        <v>6</v>
+      </c>
+      <c r="V77" t="s">
+        <v>3</v>
+      </c>
+      <c r="W77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>10</v>
+      </c>
+      <c r="E78">
+        <v>11</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78">
+        <v>13</v>
+      </c>
+      <c r="H78">
+        <v>13</v>
+      </c>
+      <c r="I78">
+        <v>12</v>
+      </c>
+      <c r="J78">
+        <v>13</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>9</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78" t="s">
+        <v>7</v>
+      </c>
+      <c r="S78" t="s">
+        <v>8</v>
+      </c>
+      <c r="T78" t="s">
+        <v>5</v>
+      </c>
+      <c r="U78" t="s">
+        <v>6</v>
+      </c>
+      <c r="V78" t="s">
+        <v>3</v>
+      </c>
+      <c r="W78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>11</v>
+      </c>
+      <c r="E79">
+        <v>13</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79">
+        <v>13</v>
+      </c>
+      <c r="H79">
+        <v>16</v>
+      </c>
+      <c r="I79">
+        <v>9</v>
+      </c>
+      <c r="J79">
+        <v>14</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>12</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79" t="s">
+        <v>7</v>
+      </c>
+      <c r="S79" t="s">
+        <v>8</v>
+      </c>
+      <c r="T79" t="s">
+        <v>5</v>
+      </c>
+      <c r="U79" t="s">
+        <v>6</v>
+      </c>
+      <c r="V79" t="s">
+        <v>3</v>
+      </c>
+      <c r="W79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>13</v>
+      </c>
+      <c r="E80">
+        <v>9</v>
+      </c>
+      <c r="F80">
+        <v>5</v>
+      </c>
+      <c r="G80">
+        <v>12</v>
+      </c>
+      <c r="H80">
+        <v>11</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+      <c r="J80">
+        <v>11</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>13</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80" t="s">
+        <v>7</v>
+      </c>
+      <c r="S80" t="s">
+        <v>8</v>
+      </c>
+      <c r="T80" t="s">
+        <v>5</v>
+      </c>
+      <c r="U80" t="s">
+        <v>6</v>
+      </c>
+      <c r="V80" t="s">
+        <v>3</v>
+      </c>
+      <c r="W80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>13</v>
+      </c>
+      <c r="E81">
+        <v>11</v>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81">
+        <v>11</v>
+      </c>
+      <c r="H81">
+        <v>9</v>
+      </c>
+      <c r="I81">
+        <v>11</v>
+      </c>
+      <c r="J81">
+        <v>12</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>10</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81" t="s">
+        <v>7</v>
+      </c>
+      <c r="S81" t="s">
+        <v>8</v>
+      </c>
+      <c r="T81" t="s">
+        <v>5</v>
+      </c>
+      <c r="U81" t="s">
+        <v>6</v>
+      </c>
+      <c r="V81" t="s">
+        <v>3</v>
+      </c>
+      <c r="W81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>13</v>
+      </c>
+      <c r="L82">
+        <v>14</v>
+      </c>
+      <c r="M82">
+        <v>14</v>
+      </c>
+      <c r="N82">
+        <v>13</v>
+      </c>
+      <c r="O82">
+        <v>14</v>
+      </c>
+      <c r="P82">
+        <v>14</v>
+      </c>
+      <c r="Q82">
+        <v>13</v>
+      </c>
+      <c r="R82" t="s">
+        <v>12</v>
+      </c>
+      <c r="S82" t="s">
+        <v>12</v>
+      </c>
+      <c r="T82" t="s">
+        <v>13</v>
+      </c>
+      <c r="U82" t="s">
+        <v>13</v>
+      </c>
+      <c r="V82" t="s">
+        <v>14</v>
+      </c>
+      <c r="W82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>12</v>
+      </c>
+      <c r="L83">
+        <v>11</v>
+      </c>
+      <c r="M83">
+        <v>12</v>
+      </c>
+      <c r="N83">
+        <v>13</v>
+      </c>
+      <c r="O83">
+        <v>12</v>
+      </c>
+      <c r="P83">
+        <v>12</v>
+      </c>
+      <c r="Q83">
+        <v>10</v>
+      </c>
+      <c r="R83" t="s">
+        <v>12</v>
+      </c>
+      <c r="S83" t="s">
+        <v>12</v>
+      </c>
+      <c r="T83" t="s">
+        <v>13</v>
+      </c>
+      <c r="U83" t="s">
+        <v>13</v>
+      </c>
+      <c r="V83" t="s">
+        <v>14</v>
+      </c>
+      <c r="W83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>12</v>
+      </c>
+      <c r="E84">
+        <v>12</v>
+      </c>
+      <c r="F84">
+        <v>12</v>
+      </c>
+      <c r="G84">
+        <v>10</v>
+      </c>
+      <c r="H84">
+        <v>10</v>
+      </c>
+      <c r="I84">
+        <v>13</v>
+      </c>
+      <c r="J84">
+        <v>13</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>14</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84" t="s">
+        <v>7</v>
+      </c>
+      <c r="S84" t="s">
+        <v>8</v>
+      </c>
+      <c r="T84" t="s">
+        <v>5</v>
+      </c>
+      <c r="U84" t="s">
+        <v>6</v>
+      </c>
+      <c r="V84" t="s">
+        <v>3</v>
+      </c>
+      <c r="W84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>14</v>
+      </c>
+      <c r="E85">
+        <v>12</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85">
+        <v>8</v>
+      </c>
+      <c r="H85">
+        <v>8</v>
+      </c>
+      <c r="I85">
+        <v>13</v>
+      </c>
+      <c r="J85">
+        <v>11</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>13</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85" t="s">
+        <v>7</v>
+      </c>
+      <c r="S85" t="s">
+        <v>8</v>
+      </c>
+      <c r="T85" t="s">
+        <v>5</v>
+      </c>
+      <c r="U85" t="s">
+        <v>6</v>
+      </c>
+      <c r="V85" t="s">
+        <v>3</v>
+      </c>
+      <c r="W85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>13</v>
+      </c>
+      <c r="E86">
+        <v>12</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86">
+        <v>7</v>
+      </c>
+      <c r="H86">
+        <v>7</v>
+      </c>
+      <c r="I86">
+        <v>12</v>
+      </c>
+      <c r="J86">
+        <v>12</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>12</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86" t="s">
+        <v>7</v>
+      </c>
+      <c r="S86" t="s">
+        <v>8</v>
+      </c>
+      <c r="T86" t="s">
+        <v>5</v>
+      </c>
+      <c r="U86" t="s">
+        <v>6</v>
+      </c>
+      <c r="V86" t="s">
+        <v>3</v>
+      </c>
+      <c r="W86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>138</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>12</v>
+      </c>
+      <c r="E87">
+        <v>11</v>
+      </c>
+      <c r="F87">
+        <v>13</v>
+      </c>
+      <c r="G87">
+        <v>8</v>
+      </c>
+      <c r="H87">
+        <v>9</v>
+      </c>
+      <c r="I87">
+        <v>11</v>
+      </c>
+      <c r="J87">
+        <v>12</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>11</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87" t="s">
+        <v>7</v>
+      </c>
+      <c r="S87" t="s">
+        <v>8</v>
+      </c>
+      <c r="T87" t="s">
+        <v>5</v>
+      </c>
+      <c r="U87" t="s">
+        <v>6</v>
+      </c>
+      <c r="V87" t="s">
+        <v>3</v>
+      </c>
+      <c r="W87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>142</v>
+      </c>
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>11</v>
+      </c>
+      <c r="E88">
+        <v>12</v>
+      </c>
+      <c r="F88">
+        <v>13</v>
+      </c>
+      <c r="G88">
+        <v>8</v>
+      </c>
+      <c r="H88">
+        <v>7</v>
+      </c>
+      <c r="I88">
+        <v>12</v>
+      </c>
+      <c r="J88">
+        <v>13</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>10</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88" t="s">
+        <v>7</v>
+      </c>
+      <c r="S88" t="s">
+        <v>8</v>
+      </c>
+      <c r="T88" t="s">
+        <v>5</v>
+      </c>
+      <c r="U88" t="s">
+        <v>6</v>
+      </c>
+      <c r="V88" t="s">
+        <v>3</v>
+      </c>
+      <c r="W88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>15</v>
+      </c>
+      <c r="E89">
+        <v>14</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>12</v>
+      </c>
+      <c r="H89">
+        <v>10</v>
+      </c>
+      <c r="I89">
+        <v>16</v>
+      </c>
+      <c r="J89">
+        <v>10</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>13</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89" t="s">
+        <v>7</v>
+      </c>
+      <c r="S89" t="s">
+        <v>8</v>
+      </c>
+      <c r="T89" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" t="s">
+        <v>6</v>
+      </c>
+      <c r="V89" t="s">
+        <v>3</v>
+      </c>
+      <c r="W89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>32</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>12</v>
+      </c>
+      <c r="E90">
+        <v>14</v>
+      </c>
+      <c r="F90">
+        <v>11</v>
+      </c>
+      <c r="G90">
+        <v>11</v>
+      </c>
+      <c r="H90">
+        <v>11</v>
+      </c>
+      <c r="I90">
+        <v>13</v>
+      </c>
+      <c r="J90">
+        <v>12</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>11</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90" t="s">
+        <v>7</v>
+      </c>
+      <c r="S90" t="s">
+        <v>8</v>
+      </c>
+      <c r="T90" t="s">
+        <v>5</v>
+      </c>
+      <c r="U90" t="s">
+        <v>6</v>
+      </c>
+      <c r="V90" t="s">
+        <v>3</v>
+      </c>
+      <c r="W90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91">
+        <v>5</v>
+      </c>
+      <c r="D91">
+        <v>11</v>
+      </c>
+      <c r="E91">
+        <v>12</v>
+      </c>
+      <c r="F91">
+        <v>9</v>
+      </c>
+      <c r="G91">
+        <v>10</v>
+      </c>
+      <c r="H91">
+        <v>10</v>
+      </c>
+      <c r="I91">
+        <v>11</v>
+      </c>
+      <c r="J91">
+        <v>11</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>10</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91" t="s">
+        <v>7</v>
+      </c>
+      <c r="S91" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" t="s">
+        <v>6</v>
+      </c>
+      <c r="V91" t="s">
+        <v>3</v>
+      </c>
+      <c r="W91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" t="s">
+        <v>28</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+      <c r="D92">
+        <v>12</v>
+      </c>
+      <c r="E92">
+        <v>13</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92">
+        <v>13</v>
+      </c>
+      <c r="H92">
+        <v>12</v>
+      </c>
+      <c r="I92">
+        <v>10</v>
+      </c>
+      <c r="J92">
+        <v>11</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>10</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92" t="s">
+        <v>7</v>
+      </c>
+      <c r="S92" t="s">
+        <v>8</v>
+      </c>
+      <c r="T92" t="s">
+        <v>5</v>
+      </c>
+      <c r="U92" t="s">
+        <v>6</v>
+      </c>
+      <c r="V92" t="s">
+        <v>3</v>
+      </c>
+      <c r="W92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>14</v>
+      </c>
+      <c r="E93">
+        <v>14</v>
+      </c>
+      <c r="F93">
+        <v>13</v>
+      </c>
+      <c r="G93">
+        <v>14</v>
+      </c>
+      <c r="H93">
+        <v>14</v>
+      </c>
+      <c r="I93">
+        <v>12</v>
+      </c>
+      <c r="J93">
+        <v>13</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>12</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93" t="s">
+        <v>7</v>
+      </c>
+      <c r="S93" t="s">
+        <v>8</v>
+      </c>
+      <c r="T93" t="s">
+        <v>5</v>
+      </c>
+      <c r="U93" t="s">
+        <v>6</v>
+      </c>
+      <c r="V93" t="s">
+        <v>3</v>
+      </c>
+      <c r="W93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>137</v>
+      </c>
+      <c r="B94" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>12</v>
+      </c>
+      <c r="E94">
+        <v>11</v>
+      </c>
+      <c r="F94">
+        <v>12</v>
+      </c>
+      <c r="G94">
+        <v>13</v>
+      </c>
+      <c r="H94">
+        <v>13</v>
+      </c>
+      <c r="I94">
+        <v>9</v>
+      </c>
+      <c r="J94">
+        <v>12</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>9</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94" t="s">
+        <v>7</v>
+      </c>
+      <c r="S94" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" t="s">
+        <v>6</v>
+      </c>
+      <c r="V94" t="s">
+        <v>3</v>
+      </c>
+      <c r="W94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>13</v>
+      </c>
+      <c r="E95">
+        <v>13</v>
+      </c>
+      <c r="F95">
+        <v>8</v>
+      </c>
+      <c r="G95">
+        <v>13</v>
+      </c>
+      <c r="H95">
+        <v>14</v>
+      </c>
+      <c r="I95">
+        <v>6</v>
+      </c>
+      <c r="J95">
+        <v>13</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>11</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95" t="s">
+        <v>7</v>
+      </c>
+      <c r="S95" t="s">
+        <v>8</v>
+      </c>
+      <c r="T95" t="s">
+        <v>5</v>
+      </c>
+      <c r="U95" t="s">
+        <v>6</v>
+      </c>
+      <c r="V95" t="s">
+        <v>3</v>
+      </c>
+      <c r="W95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>136</v>
+      </c>
+      <c r="B96" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>14</v>
+      </c>
+      <c r="E96">
+        <v>11</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="G96">
+        <v>15</v>
+      </c>
+      <c r="H96">
+        <v>12</v>
+      </c>
+      <c r="I96">
+        <v>7</v>
+      </c>
+      <c r="J96">
+        <v>10</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>14</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96" t="s">
+        <v>7</v>
+      </c>
+      <c r="S96" t="s">
+        <v>8</v>
+      </c>
+      <c r="T96" t="s">
+        <v>5</v>
+      </c>
+      <c r="U96" t="s">
+        <v>6</v>
+      </c>
+      <c r="V96" t="s">
+        <v>3</v>
+      </c>
+      <c r="W96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>140</v>
+      </c>
+      <c r="B97" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>13</v>
+      </c>
+      <c r="E97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>5</v>
+      </c>
+      <c r="G97">
+        <v>12</v>
+      </c>
+      <c r="H97">
+        <v>12</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="J97">
+        <v>12</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>12</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97" t="s">
+        <v>7</v>
+      </c>
+      <c r="S97" t="s">
+        <v>8</v>
+      </c>
+      <c r="T97" t="s">
+        <v>5</v>
+      </c>
+      <c r="U97" t="s">
+        <v>6</v>
+      </c>
+      <c r="V97" t="s">
+        <v>3</v>
+      </c>
+      <c r="W97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>147</v>
+      </c>
+      <c r="B98" t="s">
+        <v>21</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>13</v>
+      </c>
+      <c r="L98">
+        <v>14</v>
+      </c>
+      <c r="M98">
+        <v>13</v>
+      </c>
+      <c r="N98">
+        <v>14</v>
+      </c>
+      <c r="O98">
+        <v>15</v>
+      </c>
+      <c r="P98">
+        <v>14</v>
+      </c>
+      <c r="Q98">
+        <v>11</v>
+      </c>
+      <c r="R98" t="s">
+        <v>12</v>
+      </c>
+      <c r="S98" t="s">
+        <v>12</v>
+      </c>
+      <c r="T98" t="s">
+        <v>13</v>
+      </c>
+      <c r="U98" t="s">
+        <v>13</v>
+      </c>
+      <c r="V98" t="s">
+        <v>14</v>
+      </c>
+      <c r="W98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>7</v>
+      </c>
+      <c r="L99">
+        <v>7</v>
+      </c>
+      <c r="M99">
+        <v>7</v>
+      </c>
+      <c r="N99">
+        <v>7</v>
+      </c>
+      <c r="O99">
+        <v>7</v>
+      </c>
+      <c r="P99">
+        <v>7</v>
+      </c>
+      <c r="Q99">
+        <v>10</v>
+      </c>
+      <c r="R99" t="s">
+        <v>12</v>
+      </c>
+      <c r="S99" t="s">
+        <v>12</v>
+      </c>
+      <c r="T99" t="s">
+        <v>13</v>
+      </c>
+      <c r="U99" t="s">
+        <v>13</v>
+      </c>
+      <c r="V99" t="s">
+        <v>14</v>
+      </c>
+      <c r="W99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>12</v>
+      </c>
+      <c r="E100">
+        <v>11</v>
+      </c>
+      <c r="F100">
+        <v>8</v>
+      </c>
+      <c r="G100">
+        <v>9</v>
+      </c>
+      <c r="H100">
+        <v>7</v>
+      </c>
+      <c r="I100">
+        <v>12</v>
+      </c>
+      <c r="J100">
+        <v>12</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>12</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>0</v>
+      </c>
+      <c r="R100" t="s">
+        <v>7</v>
+      </c>
+      <c r="S100" t="s">
+        <v>8</v>
+      </c>
+      <c r="T100" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" t="s">
+        <v>6</v>
+      </c>
+      <c r="V100" t="s">
+        <v>3</v>
+      </c>
+      <c r="W100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>154</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>14</v>
+      </c>
+      <c r="E101">
+        <v>11</v>
+      </c>
+      <c r="F101">
+        <v>11</v>
+      </c>
+      <c r="G101">
+        <v>7</v>
+      </c>
+      <c r="H101">
+        <v>7</v>
+      </c>
+      <c r="I101">
+        <v>13</v>
+      </c>
+      <c r="J101">
+        <v>12</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>11</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>0</v>
+      </c>
+      <c r="R101" t="s">
+        <v>7</v>
+      </c>
+      <c r="S101" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" t="s">
+        <v>6</v>
+      </c>
+      <c r="V101" t="s">
+        <v>3</v>
+      </c>
+      <c r="W101" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>158</v>
+      </c>
+      <c r="B102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>12</v>
+      </c>
+      <c r="E102">
+        <v>11</v>
+      </c>
+      <c r="F102">
+        <v>9</v>
+      </c>
+      <c r="G102">
+        <v>8</v>
+      </c>
+      <c r="H102">
+        <v>6</v>
+      </c>
+      <c r="I102">
+        <v>5</v>
+      </c>
+      <c r="J102">
+        <v>12</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>12</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>0</v>
+      </c>
+      <c r="R102" t="s">
+        <v>7</v>
+      </c>
+      <c r="S102" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" t="s">
+        <v>6</v>
+      </c>
+      <c r="V102" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>155</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+      <c r="E103">
+        <v>12</v>
+      </c>
+      <c r="F103">
+        <v>12</v>
+      </c>
+      <c r="G103">
+        <v>11</v>
+      </c>
+      <c r="H103">
+        <v>10</v>
+      </c>
+      <c r="I103">
+        <v>12</v>
+      </c>
+      <c r="J103">
+        <v>13</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>7</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>0</v>
+      </c>
+      <c r="R103" t="s">
+        <v>7</v>
+      </c>
+      <c r="S103" t="s">
+        <v>8</v>
+      </c>
+      <c r="T103" t="s">
+        <v>5</v>
+      </c>
+      <c r="U103" t="s">
+        <v>6</v>
+      </c>
+      <c r="V103" t="s">
+        <v>3</v>
+      </c>
+      <c r="W103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>160</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>13</v>
+      </c>
+      <c r="E104">
+        <v>17</v>
+      </c>
+      <c r="F104">
+        <v>16</v>
+      </c>
+      <c r="G104">
+        <v>13</v>
+      </c>
+      <c r="H104">
+        <v>15</v>
+      </c>
+      <c r="I104">
+        <v>14</v>
+      </c>
+      <c r="J104">
+        <v>15</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>9</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>0</v>
+      </c>
+      <c r="R104" t="s">
+        <v>7</v>
+      </c>
+      <c r="S104" t="s">
+        <v>8</v>
+      </c>
+      <c r="T104" t="s">
+        <v>5</v>
+      </c>
+      <c r="U104" t="s">
+        <v>6</v>
+      </c>
+      <c r="V104" t="s">
+        <v>3</v>
+      </c>
+      <c r="W104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>13</v>
+      </c>
+      <c r="E105">
+        <v>11</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105">
+        <v>9</v>
+      </c>
+      <c r="H105">
+        <v>7</v>
+      </c>
+      <c r="I105">
+        <v>13</v>
+      </c>
+      <c r="J105">
+        <v>9</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>11</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>0</v>
+      </c>
+      <c r="R105" t="s">
+        <v>7</v>
+      </c>
+      <c r="S105" t="s">
+        <v>8</v>
+      </c>
+      <c r="T105" t="s">
+        <v>5</v>
+      </c>
+      <c r="U105" t="s">
+        <v>6</v>
+      </c>
+      <c r="V105" t="s">
+        <v>3</v>
+      </c>
+      <c r="W105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>161</v>
+      </c>
+      <c r="B106" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>13</v>
+      </c>
+      <c r="E106">
+        <v>12</v>
+      </c>
+      <c r="F106">
+        <v>13</v>
+      </c>
+      <c r="G106">
+        <v>9</v>
+      </c>
+      <c r="H106">
+        <v>12</v>
+      </c>
+      <c r="I106">
+        <v>13</v>
+      </c>
+      <c r="J106">
+        <v>9</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>12</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>0</v>
+      </c>
+      <c r="R106" t="s">
+        <v>7</v>
+      </c>
+      <c r="S106" t="s">
+        <v>8</v>
+      </c>
+      <c r="T106" t="s">
+        <v>5</v>
+      </c>
+      <c r="U106" t="s">
+        <v>6</v>
+      </c>
+      <c r="V106" t="s">
+        <v>3</v>
+      </c>
+      <c r="W106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>156</v>
+      </c>
+      <c r="B107" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>12</v>
+      </c>
+      <c r="E107">
+        <v>12</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107">
+        <v>10</v>
+      </c>
+      <c r="H107">
+        <v>11</v>
+      </c>
+      <c r="I107">
+        <v>12</v>
+      </c>
+      <c r="J107">
+        <v>10</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>12</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>0</v>
+      </c>
+      <c r="R107" t="s">
+        <v>7</v>
+      </c>
+      <c r="S107" t="s">
+        <v>8</v>
+      </c>
+      <c r="T107" t="s">
+        <v>5</v>
+      </c>
+      <c r="U107" t="s">
+        <v>6</v>
+      </c>
+      <c r="V107" t="s">
+        <v>3</v>
+      </c>
+      <c r="W107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
+      </c>
+      <c r="D108">
+        <v>11</v>
+      </c>
+      <c r="E108">
+        <v>12</v>
+      </c>
+      <c r="F108">
+        <v>12</v>
+      </c>
+      <c r="G108">
+        <v>10</v>
+      </c>
+      <c r="H108">
+        <v>13</v>
+      </c>
+      <c r="I108">
+        <v>10</v>
+      </c>
+      <c r="J108">
+        <v>12</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>11</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>0</v>
+      </c>
+      <c r="R108" t="s">
+        <v>7</v>
+      </c>
+      <c r="S108" t="s">
+        <v>8</v>
+      </c>
+      <c r="T108" t="s">
+        <v>5</v>
+      </c>
+      <c r="U108" t="s">
+        <v>6</v>
+      </c>
+      <c r="V108" t="s">
+        <v>3</v>
+      </c>
+      <c r="W108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="D109">
+        <v>12</v>
+      </c>
+      <c r="E109">
+        <v>13</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109">
+        <v>12</v>
+      </c>
+      <c r="H109">
+        <v>12</v>
+      </c>
+      <c r="I109">
+        <v>10</v>
+      </c>
+      <c r="J109">
+        <v>12</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>9</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>0</v>
+      </c>
+      <c r="R109" t="s">
+        <v>7</v>
+      </c>
+      <c r="S109" t="s">
+        <v>8</v>
+      </c>
+      <c r="T109" t="s">
+        <v>5</v>
+      </c>
+      <c r="U109" t="s">
+        <v>6</v>
+      </c>
+      <c r="V109" t="s">
+        <v>3</v>
+      </c>
+      <c r="W109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>162</v>
+      </c>
+      <c r="B110" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110">
+        <v>6</v>
+      </c>
+      <c r="D110">
+        <v>10</v>
+      </c>
+      <c r="E110">
+        <v>15</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110">
+        <v>13</v>
+      </c>
+      <c r="H110">
+        <v>13</v>
+      </c>
+      <c r="I110">
+        <v>7</v>
+      </c>
+      <c r="J110">
+        <v>6</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>7</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>0</v>
+      </c>
+      <c r="R110" t="s">
+        <v>7</v>
+      </c>
+      <c r="S110" t="s">
+        <v>8</v>
+      </c>
+      <c r="T110" t="s">
+        <v>5</v>
+      </c>
+      <c r="U110" t="s">
+        <v>6</v>
+      </c>
+      <c r="V110" t="s">
+        <v>3</v>
+      </c>
+      <c r="W110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>150</v>
+      </c>
+      <c r="B111" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111">
+        <v>6</v>
+      </c>
+      <c r="D111">
+        <v>12</v>
+      </c>
+      <c r="E111">
+        <v>9</v>
+      </c>
+      <c r="F111">
+        <v>8</v>
+      </c>
+      <c r="G111">
+        <v>13</v>
+      </c>
+      <c r="H111">
+        <v>15</v>
+      </c>
+      <c r="I111">
+        <v>12</v>
+      </c>
+      <c r="J111">
+        <v>14</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>13</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>0</v>
+      </c>
+      <c r="R111" t="s">
+        <v>7</v>
+      </c>
+      <c r="S111" t="s">
+        <v>8</v>
+      </c>
+      <c r="T111" t="s">
+        <v>5</v>
+      </c>
+      <c r="U111" t="s">
+        <v>6</v>
+      </c>
+      <c r="V111" t="s">
+        <v>3</v>
+      </c>
+      <c r="W111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>151</v>
+      </c>
+      <c r="B112" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112">
+        <v>6</v>
+      </c>
+      <c r="D112">
+        <v>9</v>
+      </c>
+      <c r="E112">
+        <v>11</v>
+      </c>
+      <c r="F112">
+        <v>7</v>
+      </c>
+      <c r="G112">
+        <v>13</v>
+      </c>
+      <c r="H112">
+        <v>14</v>
+      </c>
+      <c r="I112">
+        <v>4</v>
+      </c>
+      <c r="J112">
+        <v>6</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>12</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>0</v>
+      </c>
+      <c r="R112" t="s">
+        <v>7</v>
+      </c>
+      <c r="S112" t="s">
+        <v>8</v>
+      </c>
+      <c r="T112" t="s">
+        <v>5</v>
+      </c>
+      <c r="U112" t="s">
+        <v>6</v>
+      </c>
+      <c r="V112" t="s">
+        <v>3</v>
+      </c>
+      <c r="W112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" t="s">
+        <v>30</v>
+      </c>
+      <c r="C113">
+        <v>6</v>
+      </c>
+      <c r="D113">
+        <v>13</v>
+      </c>
+      <c r="E113">
+        <v>12</v>
+      </c>
+      <c r="F113">
+        <v>5</v>
+      </c>
+      <c r="G113">
+        <v>12</v>
+      </c>
+      <c r="H113">
+        <v>12</v>
+      </c>
+      <c r="I113">
+        <v>9</v>
+      </c>
+      <c r="J113">
+        <v>9</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>14</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>0</v>
+      </c>
+      <c r="R113" t="s">
+        <v>7</v>
+      </c>
+      <c r="S113" t="s">
+        <v>8</v>
+      </c>
+      <c r="T113" t="s">
+        <v>5</v>
+      </c>
+      <c r="U113" t="s">
+        <v>6</v>
+      </c>
+      <c r="V113" t="s">
+        <v>3</v>
+      </c>
+      <c r="W113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>163</v>
+      </c>
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114">
+        <v>7</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>14</v>
+      </c>
+      <c r="L114">
+        <v>13</v>
+      </c>
+      <c r="M114">
+        <v>13</v>
+      </c>
+      <c r="N114">
+        <v>13</v>
+      </c>
+      <c r="O114">
+        <v>13</v>
+      </c>
+      <c r="P114">
+        <v>17</v>
+      </c>
+      <c r="Q114">
+        <v>10</v>
+      </c>
+      <c r="R114" t="s">
+        <v>12</v>
+      </c>
+      <c r="S114" t="s">
+        <v>12</v>
+      </c>
+      <c r="T114" t="s">
+        <v>13</v>
+      </c>
+      <c r="U114" t="s">
+        <v>13</v>
+      </c>
+      <c r="V114" t="s">
+        <v>14</v>
+      </c>
+      <c r="W114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>164</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115">
+        <v>7</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>12</v>
+      </c>
+      <c r="L115">
+        <v>11</v>
+      </c>
+      <c r="M115">
+        <v>10</v>
+      </c>
+      <c r="N115">
+        <v>12</v>
+      </c>
+      <c r="O115">
+        <v>12</v>
+      </c>
+      <c r="P115">
+        <v>14</v>
+      </c>
+      <c r="Q115">
+        <v>11</v>
+      </c>
+      <c r="R115" t="s">
+        <v>12</v>
+      </c>
+      <c r="S115" t="s">
+        <v>12</v>
+      </c>
+      <c r="T115" t="s">
+        <v>13</v>
+      </c>
+      <c r="U115" t="s">
+        <v>13</v>
+      </c>
+      <c r="V115" t="s">
+        <v>14</v>
+      </c>
+      <c r="W115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>165</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+      <c r="D116">
+        <v>13</v>
+      </c>
+      <c r="E116">
+        <v>12</v>
+      </c>
+      <c r="F116">
+        <v>7</v>
+      </c>
+      <c r="G116">
+        <v>9</v>
+      </c>
+      <c r="H116">
+        <v>7</v>
+      </c>
+      <c r="I116">
+        <v>13</v>
+      </c>
+      <c r="J116">
+        <v>9</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>13</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116" t="s">
+        <v>7</v>
+      </c>
+      <c r="S116" t="s">
+        <v>8</v>
+      </c>
+      <c r="T116" t="s">
+        <v>5</v>
+      </c>
+      <c r="U116" t="s">
+        <v>6</v>
+      </c>
+      <c r="V116" t="s">
+        <v>3</v>
+      </c>
+      <c r="W116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>174</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117">
+        <v>7</v>
+      </c>
+      <c r="D117">
+        <v>11</v>
+      </c>
+      <c r="E117">
+        <v>10</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117">
+        <v>9</v>
+      </c>
+      <c r="H117">
+        <v>8</v>
+      </c>
+      <c r="I117">
+        <v>13</v>
+      </c>
+      <c r="J117">
+        <v>8</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>12</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117" t="s">
+        <v>7</v>
+      </c>
+      <c r="S117" t="s">
+        <v>8</v>
+      </c>
+      <c r="T117" t="s">
+        <v>5</v>
+      </c>
+      <c r="U117" t="s">
+        <v>6</v>
+      </c>
+      <c r="V117" t="s">
+        <v>3</v>
+      </c>
+      <c r="W117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>178</v>
+      </c>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <v>12</v>
+      </c>
+      <c r="E118">
+        <v>9</v>
+      </c>
+      <c r="F118">
+        <v>5</v>
+      </c>
+      <c r="G118">
+        <v>8</v>
+      </c>
+      <c r="H118">
+        <v>5</v>
+      </c>
+      <c r="I118">
+        <v>13</v>
+      </c>
+      <c r="J118">
+        <v>11</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>10</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118" t="s">
+        <v>7</v>
+      </c>
+      <c r="S118" t="s">
+        <v>8</v>
+      </c>
+      <c r="T118" t="s">
+        <v>5</v>
+      </c>
+      <c r="U118" t="s">
+        <v>6</v>
+      </c>
+      <c r="V118" t="s">
+        <v>3</v>
+      </c>
+      <c r="W118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>167</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119">
+        <v>7</v>
+      </c>
+      <c r="D119">
+        <v>12</v>
+      </c>
+      <c r="E119">
+        <v>13</v>
+      </c>
+      <c r="F119">
+        <v>14</v>
+      </c>
+      <c r="G119">
+        <v>10</v>
+      </c>
+      <c r="H119">
+        <v>9</v>
+      </c>
+      <c r="I119">
+        <v>13</v>
+      </c>
+      <c r="J119">
+        <v>13</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>9</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119" t="s">
+        <v>7</v>
+      </c>
+      <c r="S119" t="s">
+        <v>8</v>
+      </c>
+      <c r="T119" t="s">
+        <v>5</v>
+      </c>
+      <c r="U119" t="s">
+        <v>6</v>
+      </c>
+      <c r="V119" t="s">
+        <v>3</v>
+      </c>
+      <c r="W119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>176</v>
+      </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>10</v>
+      </c>
+      <c r="E120">
+        <v>12</v>
+      </c>
+      <c r="F120">
+        <v>12</v>
+      </c>
+      <c r="G120">
+        <v>7</v>
+      </c>
+      <c r="H120">
+        <v>5</v>
+      </c>
+      <c r="I120">
+        <v>11</v>
+      </c>
+      <c r="J120">
+        <v>11</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>10</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120" t="s">
+        <v>7</v>
+      </c>
+      <c r="S120" t="s">
+        <v>8</v>
+      </c>
+      <c r="T120" t="s">
+        <v>5</v>
+      </c>
+      <c r="U120" t="s">
+        <v>6</v>
+      </c>
+      <c r="V120" t="s">
+        <v>3</v>
+      </c>
+      <c r="W120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>172</v>
+      </c>
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121">
+        <v>7</v>
+      </c>
+      <c r="D121">
+        <v>13</v>
+      </c>
+      <c r="E121">
+        <v>11</v>
+      </c>
+      <c r="F121">
+        <v>8</v>
+      </c>
+      <c r="G121">
+        <v>9</v>
+      </c>
+      <c r="H121">
+        <v>10</v>
+      </c>
+      <c r="I121">
+        <v>12</v>
+      </c>
+      <c r="J121">
+        <v>12</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>11</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121" t="s">
+        <v>7</v>
+      </c>
+      <c r="S121" t="s">
+        <v>8</v>
+      </c>
+      <c r="T121" t="s">
+        <v>5</v>
+      </c>
+      <c r="U121" t="s">
+        <v>6</v>
+      </c>
+      <c r="V121" t="s">
+        <v>3</v>
+      </c>
+      <c r="W121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>169</v>
+      </c>
+      <c r="B122" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122">
+        <v>7</v>
+      </c>
+      <c r="D122">
+        <v>13</v>
+      </c>
+      <c r="E122">
+        <v>12</v>
+      </c>
+      <c r="F122">
+        <v>11</v>
+      </c>
+      <c r="G122">
+        <v>9</v>
+      </c>
+      <c r="H122">
+        <v>9</v>
+      </c>
+      <c r="I122">
+        <v>14</v>
+      </c>
+      <c r="J122">
+        <v>12</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>11</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122" t="s">
+        <v>7</v>
+      </c>
+      <c r="S122" t="s">
+        <v>8</v>
+      </c>
+      <c r="T122" t="s">
+        <v>5</v>
+      </c>
+      <c r="U122" t="s">
+        <v>6</v>
+      </c>
+      <c r="V122" t="s">
+        <v>3</v>
+      </c>
+      <c r="W122" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>89</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123">
+        <v>7</v>
+      </c>
+      <c r="D123">
+        <v>13</v>
+      </c>
+      <c r="E123">
+        <v>12</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123">
+        <v>10</v>
+      </c>
+      <c r="H123">
+        <v>11</v>
+      </c>
+      <c r="I123">
+        <v>12</v>
+      </c>
+      <c r="J123">
+        <v>12</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>10</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123" t="s">
+        <v>7</v>
+      </c>
+      <c r="S123" t="s">
+        <v>8</v>
+      </c>
+      <c r="T123" t="s">
+        <v>5</v>
+      </c>
+      <c r="U123" t="s">
+        <v>6</v>
+      </c>
+      <c r="V123" t="s">
+        <v>3</v>
+      </c>
+      <c r="W123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>171</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124">
+        <v>7</v>
+      </c>
+      <c r="D124">
+        <v>14</v>
+      </c>
+      <c r="E124">
+        <v>11</v>
+      </c>
+      <c r="F124">
+        <v>10</v>
+      </c>
+      <c r="G124">
+        <v>9</v>
+      </c>
+      <c r="H124">
+        <v>9</v>
+      </c>
+      <c r="I124">
+        <v>14</v>
+      </c>
+      <c r="J124">
+        <v>11</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>10</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124" t="s">
+        <v>7</v>
+      </c>
+      <c r="S124" t="s">
+        <v>8</v>
+      </c>
+      <c r="T124" t="s">
+        <v>5</v>
+      </c>
+      <c r="U124" t="s">
+        <v>6</v>
+      </c>
+      <c r="V124" t="s">
+        <v>3</v>
+      </c>
+      <c r="W124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>166</v>
+      </c>
+      <c r="B125" t="s">
+        <v>28</v>
+      </c>
+      <c r="C125">
+        <v>7</v>
+      </c>
+      <c r="D125">
+        <v>8</v>
+      </c>
+      <c r="E125">
+        <v>14</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+      <c r="G125">
+        <v>12</v>
+      </c>
+      <c r="H125">
+        <v>14</v>
+      </c>
+      <c r="I125">
+        <v>8</v>
+      </c>
+      <c r="J125">
+        <v>14</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>7</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125" t="s">
+        <v>7</v>
+      </c>
+      <c r="S125" t="s">
+        <v>8</v>
+      </c>
+      <c r="T125" t="s">
+        <v>5</v>
+      </c>
+      <c r="U125" t="s">
+        <v>6</v>
+      </c>
+      <c r="V125" t="s">
+        <v>3</v>
+      </c>
+      <c r="W125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>168</v>
+      </c>
+      <c r="B126" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126">
+        <v>7</v>
+      </c>
+      <c r="D126">
+        <v>11</v>
+      </c>
+      <c r="E126">
+        <v>12</v>
+      </c>
+      <c r="F126">
+        <v>12</v>
+      </c>
+      <c r="G126">
+        <v>12</v>
+      </c>
+      <c r="H126">
+        <v>13</v>
+      </c>
+      <c r="I126">
+        <v>10</v>
+      </c>
+      <c r="J126">
+        <v>13</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>10</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126" t="s">
+        <v>7</v>
+      </c>
+      <c r="S126" t="s">
+        <v>8</v>
+      </c>
+      <c r="T126" t="s">
+        <v>5</v>
+      </c>
+      <c r="U126" t="s">
+        <v>6</v>
+      </c>
+      <c r="V126" t="s">
+        <v>3</v>
+      </c>
+      <c r="W126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>170</v>
+      </c>
+      <c r="B127" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127">
+        <v>7</v>
+      </c>
+      <c r="D127">
+        <v>12</v>
+      </c>
+      <c r="E127">
+        <v>13</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127">
+        <v>13</v>
+      </c>
+      <c r="H127">
+        <v>13</v>
+      </c>
+      <c r="I127">
+        <v>14</v>
+      </c>
+      <c r="J127">
+        <v>13</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>11</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127" t="s">
+        <v>7</v>
+      </c>
+      <c r="S127" t="s">
+        <v>8</v>
+      </c>
+      <c r="T127" t="s">
+        <v>5</v>
+      </c>
+      <c r="U127" t="s">
+        <v>6</v>
+      </c>
+      <c r="V127" t="s">
+        <v>3</v>
+      </c>
+      <c r="W127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>173</v>
+      </c>
+      <c r="B128" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128">
+        <v>7</v>
+      </c>
+      <c r="D128">
+        <v>12</v>
+      </c>
+      <c r="E128">
+        <v>13</v>
+      </c>
+      <c r="F128">
+        <v>7</v>
+      </c>
+      <c r="G128">
+        <v>13</v>
+      </c>
+      <c r="H128">
+        <v>13</v>
+      </c>
+      <c r="I128">
+        <v>10</v>
+      </c>
+      <c r="J128">
+        <v>13</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>13</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128" t="s">
+        <v>7</v>
+      </c>
+      <c r="S128" t="s">
+        <v>8</v>
+      </c>
+      <c r="T128" t="s">
+        <v>5</v>
+      </c>
+      <c r="U128" t="s">
+        <v>6</v>
+      </c>
+      <c r="V128" t="s">
+        <v>3</v>
+      </c>
+      <c r="W128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>175</v>
+      </c>
+      <c r="B129" t="s">
+        <v>30</v>
+      </c>
+      <c r="C129">
+        <v>7</v>
+      </c>
+      <c r="D129">
+        <v>13</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+      <c r="F129">
+        <v>7</v>
+      </c>
+      <c r="G129">
+        <v>12</v>
+      </c>
+      <c r="H129">
+        <v>10</v>
+      </c>
+      <c r="I129">
+        <v>10</v>
+      </c>
+      <c r="J129">
+        <v>12</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>13</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129" t="s">
+        <v>7</v>
+      </c>
+      <c r="S129" t="s">
+        <v>8</v>
+      </c>
+      <c r="T129" t="s">
+        <v>5</v>
+      </c>
+      <c r="U129" t="s">
+        <v>6</v>
+      </c>
+      <c r="V129" t="s">
+        <v>3</v>
+      </c>
+      <c r="W129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>177</v>
+      </c>
+      <c r="B130" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130">
+        <v>7</v>
+      </c>
+      <c r="D130">
+        <v>14</v>
+      </c>
+      <c r="E130">
+        <v>12</v>
+      </c>
+      <c r="F130">
+        <v>7</v>
+      </c>
+      <c r="G130">
+        <v>13</v>
+      </c>
+      <c r="H130">
+        <v>12</v>
+      </c>
+      <c r="I130">
+        <v>8</v>
+      </c>
+      <c r="J130">
+        <v>12</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>13</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130" t="s">
+        <v>7</v>
+      </c>
+      <c r="S130" t="s">
+        <v>8</v>
+      </c>
+      <c r="T130" t="s">
+        <v>5</v>
+      </c>
+      <c r="U130" t="s">
+        <v>6</v>
+      </c>
+      <c r="V130" t="s">
+        <v>3</v>
+      </c>
+      <c r="W130" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W33"/>
+  <autoFilter ref="A1:W130">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="atacante"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="D1:Q1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3014,7 +10164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -3025,296 +10175,296 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
